--- a/InputData/ctrl-settings/BAEPAbCiPC/Bool Are Energy Prices Affected by Chng in Production Costs.xlsx
+++ b/InputData/ctrl-settings/BAEPAbCiPC/Bool Are Energy Prices Affected by Chng in Production Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ctrl-settings\BAEPAbCiPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\ctrl-settings\BAEPAbCiPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF24940A-FBE5-400B-A056-81583C89D2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE463E82-837A-4495-B30A-8122B4DF3498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -474,14 +474,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,22 +489,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -522,30 +522,28 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -553,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -561,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -569,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -577,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -585,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -593,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -601,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -609,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -617,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -625,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -633,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -641,15 +639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -657,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -665,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -673,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -681,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -689,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -697,12 +695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
